--- a/Additional_Files/Supplemental_Table_1.xlsx
+++ b/Additional_Files/Supplemental_Table_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/HHD/Documents/GitHub/paper-OysterSeed-TimeXTemp/AdditionalFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/HHD/Documents/GitHub/paper-OysterSeed-TimeXTemp/Additional_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CE3EFC1-CA69-A145-9551-683E5E3DFF2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DDE1D4-84BB-E944-AAB6-3B1C3DC9CEE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="2000" windowWidth="24640" windowHeight="14000" xr2:uid="{74195A81-433A-764D-9E62-638FF3AF16AF}"/>
+    <workbookView xWindow="100" yWindow="660" windowWidth="25500" windowHeight="10460" xr2:uid="{74195A81-433A-764D-9E62-638FF3AF16AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <r>
       <t>Lower Screen Size (</t>
@@ -226,12 +226,24 @@
       <t>Biovolume of oyster seed (mL) settled after 6 days of exposure to high temperatures.  Taylor Shellfish Hatchery provided seed per mL conversions for different screen sizes.</t>
     </r>
   </si>
+  <si>
+    <t>total seed</t>
+  </si>
+  <si>
+    <t>fraction remaining since start of experiment</t>
+  </si>
+  <si>
+    <t>23°C</t>
+  </si>
+  <si>
+    <t>29°C</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -271,6 +283,32 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -292,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -306,6 +344,28 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,10 +411,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16503937007874014"/>
-          <c:y val="5.0925925925925923E-2"/>
-          <c:w val="0.80440507436570441"/>
-          <c:h val="0.79500729075532228"/>
+          <c:x val="0.24641511751152684"/>
+          <c:y val="0.10894296262312288"/>
+          <c:w val="0.72302930468453119"/>
+          <c:h val="0.69279986992709341"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -365,7 +425,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>23°C</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>23°C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -434,7 +502,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>29°C</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>29°C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -526,25 +602,33 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1400"/>
                   <a:t>Screen size (μm)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48126054017302128"/>
+              <c:y val="0.90675588301536314"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -558,16 +642,16 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -596,16 +680,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -646,25 +730,33 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1400"/>
                   <a:t>Number of oysters</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="8.0631772856912087E-2"/>
+              <c:y val="0.16996070637894312"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -678,16 +770,16 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -710,16 +802,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -745,9 +837,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.76603368328958865"/>
-          <c:y val="6.5392971711869349E-2"/>
-          <c:w val="0.17771706152134387"/>
+          <c:x val="0.69458892546523587"/>
+          <c:y val="3.2155352275092981E-2"/>
+          <c:w val="0.26516625240251435"/>
           <c:h val="7.8269405929095412E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -764,16 +856,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -811,7 +903,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1371,16 +1466,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>678302</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>174439</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152374</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>185520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>306027</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>67797</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>18406</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>119530</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1705,10 +1800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DCC67F-A92E-A846-BAC3-FEE4EDEB1F22}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J328"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1718,14 +1813,23 @@
     <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="37" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1751,7 +1855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>315</v>
       </c>
@@ -1778,7 +1882,7 @@
         <v>29827</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>450</v>
       </c>
@@ -1805,7 +1909,7 @@
         <v>78694</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>710</v>
       </c>
@@ -1832,7 +1936,7 @@
         <v>136000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1000</v>
       </c>
@@ -1859,7 +1963,7 @@
         <v>59220</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1320</v>
       </c>
@@ -1885,6 +1989,849 @@
       <c r="H8" s="6">
         <v>5248</v>
       </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G9" s="9">
+        <f>SUM(G4:G8)</f>
+        <v>297213</v>
+      </c>
+      <c r="H9" s="9">
+        <f>SUM(H4:H8)</f>
+        <v>308989</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="37" x14ac:dyDescent="0.2">
+      <c r="G10" s="7">
+        <f>G9/1000000</f>
+        <v>0.297213</v>
+      </c>
+      <c r="H10" s="7">
+        <f>H9/1000000</f>
+        <v>0.30898900000000001</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I20" s="10"/>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I27" s="10"/>
+    </row>
+    <row r="29" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="9:9" s="13" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I34" s="10"/>
+    </row>
+    <row r="36" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I36" s="10"/>
+    </row>
+    <row r="37" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I38" s="10"/>
+    </row>
+    <row r="39" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I39" s="10"/>
+    </row>
+    <row r="40" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I40" s="10"/>
+    </row>
+    <row r="41" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I41" s="10"/>
+    </row>
+    <row r="43" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I43" s="10"/>
+    </row>
+    <row r="44" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I44" s="10"/>
+    </row>
+    <row r="45" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I45" s="10"/>
+    </row>
+    <row r="46" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I46" s="10"/>
+    </row>
+    <row r="47" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I47" s="10"/>
+    </row>
+    <row r="48" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I48" s="10"/>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I50" s="10"/>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I51" s="10"/>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I52" s="10"/>
+    </row>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I53" s="10"/>
+    </row>
+    <row r="54" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I54" s="10"/>
+    </row>
+    <row r="55" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I55" s="10"/>
+    </row>
+    <row r="57" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I57" s="10"/>
+    </row>
+    <row r="58" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I58" s="10"/>
+    </row>
+    <row r="59" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I59" s="10"/>
+    </row>
+    <row r="60" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I60" s="10"/>
+    </row>
+    <row r="61" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I61" s="10"/>
+    </row>
+    <row r="62" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I62" s="10"/>
+    </row>
+    <row r="64" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I64" s="10"/>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I65" s="10"/>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I66" s="10"/>
+    </row>
+    <row r="67" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I67" s="10"/>
+    </row>
+    <row r="68" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I68" s="10"/>
+    </row>
+    <row r="69" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I69" s="10"/>
+    </row>
+    <row r="71" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I71" s="10"/>
+    </row>
+    <row r="72" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I72" s="10"/>
+    </row>
+    <row r="73" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I73" s="10"/>
+    </row>
+    <row r="74" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I74" s="10"/>
+    </row>
+    <row r="75" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I75" s="10"/>
+    </row>
+    <row r="76" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I76" s="10"/>
+    </row>
+    <row r="78" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I78" s="10"/>
+    </row>
+    <row r="79" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I79" s="10"/>
+    </row>
+    <row r="80" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I80" s="10"/>
+    </row>
+    <row r="81" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I81" s="10"/>
+    </row>
+    <row r="82" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I82" s="10"/>
+    </row>
+    <row r="83" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I83" s="10"/>
+    </row>
+    <row r="85" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I85" s="10"/>
+    </row>
+    <row r="86" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I86" s="10"/>
+    </row>
+    <row r="87" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I87" s="10"/>
+    </row>
+    <row r="88" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I88" s="10"/>
+    </row>
+    <row r="89" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I89" s="10"/>
+    </row>
+    <row r="90" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I90" s="10"/>
+    </row>
+    <row r="92" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I92" s="10"/>
+    </row>
+    <row r="93" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I93" s="10"/>
+    </row>
+    <row r="94" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I94" s="10"/>
+    </row>
+    <row r="95" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I95" s="10"/>
+    </row>
+    <row r="96" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I96" s="10"/>
+    </row>
+    <row r="97" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I97" s="10"/>
+    </row>
+    <row r="99" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I99" s="10"/>
+    </row>
+    <row r="100" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I100" s="10"/>
+    </row>
+    <row r="101" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I101" s="10"/>
+    </row>
+    <row r="102" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I102" s="10"/>
+    </row>
+    <row r="103" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I103" s="10"/>
+    </row>
+    <row r="104" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I104" s="10"/>
+    </row>
+    <row r="106" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I106" s="10"/>
+    </row>
+    <row r="107" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I107" s="10"/>
+    </row>
+    <row r="108" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I108" s="10"/>
+    </row>
+    <row r="109" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I109" s="10"/>
+    </row>
+    <row r="110" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I110" s="10"/>
+    </row>
+    <row r="111" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I111" s="10"/>
+    </row>
+    <row r="113" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I113" s="10"/>
+    </row>
+    <row r="114" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I114" s="10"/>
+    </row>
+    <row r="115" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I115" s="10"/>
+    </row>
+    <row r="116" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I116" s="10"/>
+    </row>
+    <row r="117" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I117" s="10"/>
+    </row>
+    <row r="118" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I118" s="10"/>
+    </row>
+    <row r="120" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I120" s="10"/>
+    </row>
+    <row r="121" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I121" s="10"/>
+    </row>
+    <row r="122" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I122" s="10"/>
+    </row>
+    <row r="123" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I123" s="10"/>
+    </row>
+    <row r="124" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I124" s="10"/>
+    </row>
+    <row r="125" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I125" s="10"/>
+    </row>
+    <row r="127" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I127" s="10"/>
+    </row>
+    <row r="128" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I128" s="10"/>
+    </row>
+    <row r="129" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I129" s="10"/>
+    </row>
+    <row r="130" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I130" s="10"/>
+    </row>
+    <row r="131" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I131" s="10"/>
+    </row>
+    <row r="132" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I132" s="10"/>
+    </row>
+    <row r="134" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I134" s="10"/>
+    </row>
+    <row r="135" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I135" s="10"/>
+    </row>
+    <row r="136" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I136" s="10"/>
+    </row>
+    <row r="137" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I137" s="10"/>
+    </row>
+    <row r="138" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I138" s="10"/>
+    </row>
+    <row r="139" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I139" s="10"/>
+    </row>
+    <row r="141" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I141" s="10"/>
+    </row>
+    <row r="142" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I142" s="10"/>
+    </row>
+    <row r="143" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I143" s="10"/>
+    </row>
+    <row r="144" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I144" s="10"/>
+    </row>
+    <row r="145" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I145" s="10"/>
+    </row>
+    <row r="146" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I146" s="10"/>
+    </row>
+    <row r="148" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I148" s="10"/>
+    </row>
+    <row r="149" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I149" s="10"/>
+    </row>
+    <row r="150" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I150" s="10"/>
+    </row>
+    <row r="151" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I151" s="10"/>
+    </row>
+    <row r="152" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I152" s="10"/>
+    </row>
+    <row r="153" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I153" s="10"/>
+    </row>
+    <row r="155" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I155" s="10"/>
+    </row>
+    <row r="156" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I156" s="10"/>
+    </row>
+    <row r="157" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I157" s="10"/>
+    </row>
+    <row r="158" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I158" s="10"/>
+    </row>
+    <row r="159" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I159" s="10"/>
+    </row>
+    <row r="160" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I160" s="10"/>
+    </row>
+    <row r="162" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I162" s="10"/>
+    </row>
+    <row r="163" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I163" s="10"/>
+    </row>
+    <row r="164" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I164" s="10"/>
+    </row>
+    <row r="165" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I165" s="10"/>
+    </row>
+    <row r="166" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I166" s="10"/>
+    </row>
+    <row r="167" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I167" s="10"/>
+    </row>
+    <row r="169" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I169" s="10"/>
+    </row>
+    <row r="170" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I170" s="10"/>
+    </row>
+    <row r="171" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I171" s="10"/>
+    </row>
+    <row r="172" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I172" s="10"/>
+    </row>
+    <row r="173" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I173" s="10"/>
+    </row>
+    <row r="174" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I174" s="10"/>
+    </row>
+    <row r="176" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I176" s="10"/>
+    </row>
+    <row r="177" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I177" s="10"/>
+    </row>
+    <row r="178" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I178" s="10"/>
+    </row>
+    <row r="179" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I179" s="10"/>
+    </row>
+    <row r="180" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I180" s="10"/>
+    </row>
+    <row r="181" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I181" s="10"/>
+    </row>
+    <row r="183" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I183" s="10"/>
+    </row>
+    <row r="184" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I184" s="10"/>
+    </row>
+    <row r="185" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I185" s="10"/>
+    </row>
+    <row r="186" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I186" s="10"/>
+    </row>
+    <row r="187" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I187" s="10"/>
+    </row>
+    <row r="188" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I188" s="10"/>
+    </row>
+    <row r="190" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I190" s="10"/>
+    </row>
+    <row r="191" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I191" s="10"/>
+    </row>
+    <row r="192" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I192" s="10"/>
+    </row>
+    <row r="193" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I193" s="10"/>
+    </row>
+    <row r="194" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I194" s="10"/>
+    </row>
+    <row r="195" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I195" s="10"/>
+    </row>
+    <row r="197" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I197" s="10"/>
+    </row>
+    <row r="198" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I198" s="10"/>
+    </row>
+    <row r="199" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I199" s="10"/>
+    </row>
+    <row r="200" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I200" s="10"/>
+    </row>
+    <row r="201" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I201" s="10"/>
+    </row>
+    <row r="202" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I202" s="10"/>
+    </row>
+    <row r="204" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I204" s="10"/>
+    </row>
+    <row r="205" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I205" s="10"/>
+    </row>
+    <row r="206" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I206" s="10"/>
+    </row>
+    <row r="207" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I207" s="10"/>
+    </row>
+    <row r="208" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I208" s="10"/>
+    </row>
+    <row r="209" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I209" s="10"/>
+    </row>
+    <row r="211" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I211" s="10"/>
+    </row>
+    <row r="212" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I212" s="10"/>
+    </row>
+    <row r="213" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I213" s="10"/>
+    </row>
+    <row r="214" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I214" s="10"/>
+    </row>
+    <row r="215" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I215" s="10"/>
+    </row>
+    <row r="216" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I216" s="10"/>
+    </row>
+    <row r="218" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I218" s="10"/>
+    </row>
+    <row r="219" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I219" s="10"/>
+    </row>
+    <row r="220" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I220" s="10"/>
+    </row>
+    <row r="221" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I221" s="10"/>
+    </row>
+    <row r="222" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I222" s="10"/>
+    </row>
+    <row r="223" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I223" s="10"/>
+    </row>
+    <row r="225" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I225" s="10"/>
+    </row>
+    <row r="226" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I226" s="10"/>
+    </row>
+    <row r="227" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I227" s="10"/>
+    </row>
+    <row r="228" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I228" s="10"/>
+    </row>
+    <row r="229" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I229" s="10"/>
+    </row>
+    <row r="230" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I230" s="10"/>
+    </row>
+    <row r="232" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I232" s="10"/>
+    </row>
+    <row r="233" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I233" s="10"/>
+    </row>
+    <row r="234" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I234" s="10"/>
+    </row>
+    <row r="235" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I235" s="10"/>
+    </row>
+    <row r="236" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I236" s="10"/>
+    </row>
+    <row r="237" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I237" s="10"/>
+    </row>
+    <row r="239" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I239" s="10"/>
+    </row>
+    <row r="240" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I240" s="10"/>
+    </row>
+    <row r="241" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I241" s="10"/>
+    </row>
+    <row r="242" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I242" s="10"/>
+    </row>
+    <row r="243" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I243" s="10"/>
+    </row>
+    <row r="244" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I244" s="10"/>
+    </row>
+    <row r="246" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I246" s="10"/>
+    </row>
+    <row r="247" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I247" s="10"/>
+    </row>
+    <row r="248" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I248" s="10"/>
+    </row>
+    <row r="249" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I249" s="10"/>
+    </row>
+    <row r="250" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I250" s="10"/>
+    </row>
+    <row r="251" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I251" s="10"/>
+    </row>
+    <row r="253" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I253" s="10"/>
+    </row>
+    <row r="254" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I254" s="10"/>
+    </row>
+    <row r="255" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I255" s="10"/>
+    </row>
+    <row r="256" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I256" s="10"/>
+    </row>
+    <row r="257" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I257" s="10"/>
+    </row>
+    <row r="258" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I258" s="10"/>
+    </row>
+    <row r="260" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I260" s="10"/>
+    </row>
+    <row r="261" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I261" s="10"/>
+    </row>
+    <row r="262" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I262" s="10"/>
+    </row>
+    <row r="263" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I263" s="10"/>
+    </row>
+    <row r="264" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I264" s="10"/>
+    </row>
+    <row r="265" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I265" s="10"/>
+    </row>
+    <row r="267" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I267" s="10"/>
+    </row>
+    <row r="268" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I268" s="10"/>
+    </row>
+    <row r="269" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I269" s="10"/>
+    </row>
+    <row r="270" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I270" s="10"/>
+    </row>
+    <row r="271" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I271" s="10"/>
+    </row>
+    <row r="272" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I272" s="10"/>
+    </row>
+    <row r="274" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I274" s="10"/>
+    </row>
+    <row r="275" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I275" s="10"/>
+    </row>
+    <row r="276" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I276" s="10"/>
+    </row>
+    <row r="277" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I277" s="10"/>
+    </row>
+    <row r="278" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I278" s="10"/>
+    </row>
+    <row r="279" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I279" s="10"/>
+    </row>
+    <row r="281" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I281" s="10"/>
+    </row>
+    <row r="282" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I282" s="10"/>
+    </row>
+    <row r="283" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I283" s="10"/>
+    </row>
+    <row r="284" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I284" s="10"/>
+    </row>
+    <row r="285" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I285" s="10"/>
+    </row>
+    <row r="286" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I286" s="10"/>
+    </row>
+    <row r="288" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I288" s="10"/>
+    </row>
+    <row r="289" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I289" s="10"/>
+    </row>
+    <row r="290" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I290" s="10"/>
+    </row>
+    <row r="291" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I291" s="10"/>
+    </row>
+    <row r="292" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I292" s="10"/>
+    </row>
+    <row r="293" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I293" s="10"/>
+    </row>
+    <row r="295" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I295" s="10"/>
+    </row>
+    <row r="296" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I296" s="10"/>
+    </row>
+    <row r="297" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I297" s="10"/>
+    </row>
+    <row r="298" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I298" s="10"/>
+    </row>
+    <row r="299" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I299" s="10"/>
+    </row>
+    <row r="300" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I300" s="10"/>
+    </row>
+    <row r="302" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I302" s="10"/>
+    </row>
+    <row r="303" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I303" s="10"/>
+    </row>
+    <row r="304" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I304" s="10"/>
+    </row>
+    <row r="305" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I305" s="10"/>
+    </row>
+    <row r="306" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I306" s="10"/>
+    </row>
+    <row r="307" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I307" s="10"/>
+    </row>
+    <row r="309" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I309" s="10"/>
+    </row>
+    <row r="310" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I310" s="10"/>
+    </row>
+    <row r="311" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I311" s="10"/>
+    </row>
+    <row r="312" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I312" s="10"/>
+    </row>
+    <row r="313" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I313" s="10"/>
+    </row>
+    <row r="314" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I314" s="10"/>
+    </row>
+    <row r="316" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I316" s="10"/>
+    </row>
+    <row r="317" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I317" s="10"/>
+    </row>
+    <row r="318" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I318" s="10"/>
+    </row>
+    <row r="319" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I319" s="10"/>
+    </row>
+    <row r="320" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I320" s="10"/>
+    </row>
+    <row r="321" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I321" s="10"/>
+    </row>
+    <row r="323" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I323" s="10"/>
+    </row>
+    <row r="324" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I324" s="10"/>
+    </row>
+    <row r="325" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I325" s="10"/>
+    </row>
+    <row r="326" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I326" s="10"/>
+    </row>
+    <row r="327" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I327" s="10"/>
+    </row>
+    <row r="328" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I328" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
